--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="75">
   <si>
     <t>対応ストーリー</t>
   </si>
   <si>
-    <t>テスト仕様書（フィーチャファイル）からテスト実施結果報告書（エクセルファイル）を生成する</t>
+    <t>フィーチャファイルからテスト実施結果報告書を生成する</t>
   </si>
   <si>
     <t/>
@@ -34,9 +34,8 @@
     <t>事前準備</t>
   </si>
   <si>
-    <t>/tmp/example.xlsx を削除する
-サンプルのテスト仕様書を用意する
-テスト仕様書の文字コードを UTF-8 にする</t>
+    <t>example.feature を /tmp/vinegar にコピーする
+/tmp/vinegar/example.feature を UTF-8 にする</t>
   </si>
   <si>
     <t>テストID</t>
@@ -72,26 +71,25 @@
     <t>シナリオ #1</t>
   </si>
   <si>
-    <t>コマンドを実行して同名の結果報告書を生成する</t>
+    <t>コマンドを実行して結果報告書を生成する</t>
   </si>
   <si>
     <t>0010001</t>
   </si>
   <si>
-    <t>/tmp に移動する</t>
-  </si>
-  <si>
-    <t>テスト仕様書を /tmp にコピーする
-コマンドを実行する</t>
-  </si>
-  <si>
-    <t>/tmp 以下に example.xlsx ファイルが存在すること</t>
+    <t>ホームディレクトリに移動する</t>
+  </si>
+  <si>
+    <t>"vinegar /tmp/vinegar/example.feature" を実行する</t>
+  </si>
+  <si>
+    <t>/tmp/vinegar に example.xlsx ファイルが存在すること</t>
   </si>
   <si>
     <t>0010002</t>
   </si>
   <si>
-    <t>対象ストーリーに「テスト仕様書（フィーチャファイル）からテスト実施結果報告書（エクセルファイル）を生成する」と表示されていること</t>
+    <t>対象ストーリーに「フィーチャファイルからテスト実施結果報告書を生成する」と表示されていること</t>
   </si>
   <si>
     <t>0010003</t>
@@ -107,8 +105,8 @@
   </si>
   <si>
     <t>事前準備に以下が表示されていること:
-サンプルのテスト仕様書を用意する
-テスト仕様書の文字コードを UTF-8 にする</t>
+example.feature を /tmp/vinegar にコピーする
+/tmp/vinegar/example.feature を UTF-8 にする</t>
   </si>
   <si>
     <t>0010005</t>
@@ -117,40 +115,76 @@
     <t>各シナリオとステップが表示されていること</t>
   </si>
   <si>
-    <t>対応するシナリオは以下の通り
-* コマンドを実行して同名の結果報告書を生成する
-* コマンドに -o / --out オプションをつけると指定したディレクトリに出力されること
+    <t>シナリオは以下の４つ
+1. コマンドを実行して同名の結果報告書を生成する
+2. オプションで指定したディレクトリにファイルを出力する
+3. 存在しないファイルを指定するとエラーを表示する
+4. コメントは備考にコピーする
+※「ステップが存在しないシナリオは無視する」は表示されないこと
 各ステップについては元のファイルと比較して不足がないか確認すること</t>
   </si>
   <si>
-    <t>0010006</t>
-  </si>
-  <si>
-    <t>上記ステップに対応する行に備考が記入されていること</t>
-  </si>
-  <si>
     <t>シナリオ #2</t>
   </si>
   <si>
-    <t>コマンドに -o / --out オプションをつけると指定したディレクトリにファイルを出力する</t>
+    <t>オプションで指定したディレクトリにファイルを出力する</t>
   </si>
   <si>
     <t>0020001</t>
   </si>
   <si>
-    <t>"vinegar -o /tmp example.feature" コマンドを実行する</t>
+    <t>"vinegar -o ~/Desktop /tmp/vinegar/example.feature" コマンドを実行する</t>
+  </si>
+  <si>
+    <t>~/Desktop に example.xlsx ファイルが存在すること</t>
   </si>
   <si>
     <t>0020002</t>
   </si>
   <si>
+    <t>/tmp/vinegar に example.xlsx ファイルが存在しないこと</t>
+  </si>
+  <si>
     <t>0020003</t>
   </si>
   <si>
-    <t>"vinegar example.feature --out ~/Desktop" コマンドを実行する</t>
-  </si>
-  <si>
-    <t>~/Desktop 以下に example.xlsx ファイルが存在すること</t>
+    <t>カレントディレクトリに example.xlsx ファイルが存在しないこと</t>
+  </si>
+  <si>
+    <t>0020004</t>
+  </si>
+  <si>
+    <t>"vinegar /tmp/vinegar/example.feature --out /tmp/vinegar/path/to/deep/dir" コマンドを実行する</t>
+  </si>
+  <si>
+    <t>以下のエラーが表示されること:
+/tmp/vinegar/path/to/deep/dir: No such file or directory</t>
+  </si>
+  <si>
+    <t>/tmp/vinegar/path/to/deep/dir は存在しないこと
+必要であれば rm -rf /tmp/vinegar/path/ で消しておく
+日本語環境の場合はエラーメッセージが日本語になる場合もあります</t>
+  </si>
+  <si>
+    <t>0020005</t>
+  </si>
+  <si>
+    <t>/tmp/vinegar/path/to/deep/dir に example.xlsx ファイルが存在しないこと</t>
+  </si>
+  <si>
+    <t>0020006</t>
+  </si>
+  <si>
+    <t>"vinegar /tmp/vinegar/example.feature --out /tmp/vinegar/path/to/deep/dir -f" コマンドを実行する</t>
+  </si>
+  <si>
+    <t>エラーが表示されず終了すること</t>
+  </si>
+  <si>
+    <t>0020007</t>
+  </si>
+  <si>
+    <t>/tmp/vinegar/path/to/deep/dir に example.xlsx ファイルが存在すること</t>
   </si>
   <si>
     <t>シナリオ #3</t>
@@ -162,23 +196,61 @@
     <t>0030001</t>
   </si>
   <si>
-    <t>"vinegar not_exist.feature" コマンドを実行する</t>
+    <t>"vinegar /path/to/dummy.feature" コマンドを実行する</t>
   </si>
   <si>
     <t>以下のエラーが表示されること:
-File 'not_exist.feature' is not found.</t>
+/path/to/dummy.feature: No such file or directory</t>
   </si>
   <si>
     <t>シナリオ #4</t>
   </si>
   <si>
+    <t>And や But が正しくパースされていること</t>
+  </si>
+  <si>
+    <t>0040001</t>
+  </si>
+  <si>
+    <t>ホームディレクトリに移動する
+"vinegar -o ~/Desktop /tmp/vinegar/example.feature" コマンドを実行する
+このテキストは上記２ステップと合わせて「When」に記述されていること</t>
+  </si>
+  <si>
+    <t>1. このテキストは「Then」に記述されていること</t>
+  </si>
+  <si>
+    <t>0040002</t>
+  </si>
+  <si>
+    <t>2. このテキストは 1. の次行の「Then」に記述されていること</t>
+  </si>
+  <si>
+    <t>0040003</t>
+  </si>
+  <si>
+    <t>3. このテキストは 3. の次行の「Then」に記述されていること</t>
+  </si>
+  <si>
+    <t>シナリオ #5</t>
+  </si>
+  <si>
     <t>コメントは備考にコピーする</t>
   </si>
   <si>
-    <t>0040001</t>
-  </si>
-  <si>
-    <t>コマンドを実行する</t>
+    <t>0050001</t>
+  </si>
+  <si>
+    <t>「各シナリオとステップが表示されていること」に備考が設定されていること</t>
+  </si>
+  <si>
+    <t>0050002</t>
+  </si>
+  <si>
+    <t>「"vinegar /tmp/vinegar/example.feature --out /tmp/vinegar/path/to/deep/dir" コマンドを実行する」に備考が設定されていること</t>
+  </si>
+  <si>
+    <t>0050003</t>
   </si>
   <si>
     <t>このテストの備考に以下が記入されていること</t>
@@ -380,7 +452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="60.0" customHeight="true">
+    <row r="4" ht="40.0" customHeight="true">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -596,57 +668,57 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>2</v>
@@ -669,7 +741,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>2</v>
@@ -678,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>2</v>
@@ -701,16 +773,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>2</v>
@@ -728,29 +800,53 @@
         <v>2</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>43</v>
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>2</v>
@@ -772,55 +868,296 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>48</v>
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22"/>
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B27:J27"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="74">
   <si>
     <t>対応ストーリー</t>
   </si>
@@ -47,6 +47,14 @@
     <t>ブラウザ</t>
   </si>
   <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>ここにコメントを書くと備考になります。
+もちろん複数のコメントを書くことも
+可能です。</t>
+  </si>
+  <si>
     <t>テストID</t>
   </si>
   <si>
@@ -66,9 +74,6 @@
   </si>
   <si>
     <t>確認日</t>
-  </si>
-  <si>
-    <t>備考</t>
   </si>
   <si>
     <t>シナリオ #1</t>
@@ -491,149 +496,137 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="5" ht="48.0" customHeight="true">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" ht="48.0" customHeight="true">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" ht="48.0" customHeight="true">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="48.0" customHeight="true">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" ht="64.0" customHeight="true">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" ht="64.0" customHeight="true">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" ht="48.0" customHeight="true">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>2</v>
@@ -650,94 +643,94 @@
     </row>
     <row r="12" ht="48.0" customHeight="true">
       <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="48.0" customHeight="true">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="E13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" ht="48.0" customHeight="true">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" ht="48.0" customHeight="true">
       <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>2</v>
@@ -754,16 +747,16 @@
     </row>
     <row r="16" ht="48.0" customHeight="true">
       <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>2</v>
@@ -780,16 +773,16 @@
     </row>
     <row r="17" ht="48.0" customHeight="true">
       <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>2</v>
@@ -806,16 +799,16 @@
     </row>
     <row r="18" ht="48.0" customHeight="true">
       <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>2</v>
@@ -832,16 +825,16 @@
     </row>
     <row r="19" ht="48.0" customHeight="true">
       <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>2</v>
@@ -858,146 +851,146 @@
     </row>
     <row r="20" ht="48.0" customHeight="true">
       <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="48.0" customHeight="true">
+      <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="E21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" ht="48.0" customHeight="true">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="48.0" customHeight="true">
+      <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="B23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="E23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" ht="48.0" customHeight="true">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="C24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" ht="48.0" customHeight="true">
       <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>2</v>
@@ -1014,94 +1007,94 @@
     </row>
     <row r="26" ht="48.0" customHeight="true">
       <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="48.0" customHeight="true">
+      <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="E27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" ht="48.0" customHeight="true">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="9" t="s">
+      <c r="C28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" ht="48.0" customHeight="true">
       <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>2</v>
@@ -1118,51 +1111,78 @@
     </row>
     <row r="30" ht="48.0" customHeight="true">
       <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" ht="48.0" customHeight="true">
+      <c r="A31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31"/>
+      <c r="B31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B22"/>
-    <mergeCell ref="C22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B23"/>
+    <mergeCell ref="C23"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="77">
   <si>
     <t>対応ストーリー</t>
   </si>
@@ -123,6 +123,15 @@
     <t>各シナリオとステップが表示されていること</t>
   </si>
   <si>
+    <t>シナリオは以下の４つ
+1. コマンドを実行して同名の結果報告書を生成する
+2. オプションで指定したディレクトリにファイルを出力する
+3. 存在しないファイルを指定するとエラーを表示する
+4. コメントは備考にコピーする
+※「ステップが存在しないシナリオは無視する」は表示されないこと
+各ステップについては元のファイルと比較して不足がないか確認すること</t>
+  </si>
+  <si>
     <t>シナリオ #2</t>
   </si>
   <si>
@@ -162,6 +171,9 @@
 /tmp/vinegar/path/to/deep/dir: No such file or directory</t>
   </si>
   <si>
+    <t>日本語環境の場合はエラーメッセージが日本語になる場合もあります</t>
+  </si>
+  <si>
     <t>002005</t>
   </si>
   <si>
@@ -248,6 +260,11 @@
   </si>
   <si>
     <t>このテストの備考に以下が記入されていること</t>
+  </si>
+  <si>
+    <t>ここはファイル末尾のコメントです
+備考に入っていますか？
+コメント中の # は無視されていないこと</t>
   </si>
 </sst>
 </file>
@@ -387,10 +404,10 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center" wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center" wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
@@ -667,7 +684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="48.0" customHeight="true">
+    <row r="13" ht="112.0" customHeight="true">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -689,16 +706,16 @@
       <c r="G13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>2</v>
+      <c r="H13" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>2</v>
@@ -721,16 +738,16 @@
     </row>
     <row r="15" ht="48.0" customHeight="true">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>2</v>
@@ -747,7 +764,7 @@
     </row>
     <row r="16" ht="48.0" customHeight="true">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>2</v>
@@ -756,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>2</v>
@@ -773,7 +790,7 @@
     </row>
     <row r="17" ht="48.0" customHeight="true">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>2</v>
@@ -782,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>2</v>
@@ -797,18 +814,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="48.0" customHeight="true">
+    <row r="18" ht="64.0" customHeight="true">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>2</v>
@@ -820,12 +837,12 @@
         <v>2</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="48.0" customHeight="true">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>2</v>
@@ -834,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>2</v>
@@ -851,16 +868,16 @@
     </row>
     <row r="20" ht="48.0" customHeight="true">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>2</v>
@@ -877,7 +894,7 @@
     </row>
     <row r="21" ht="48.0" customHeight="true">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>2</v>
@@ -886,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>2</v>
@@ -903,10 +920,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>2</v>
@@ -929,16 +946,16 @@
     </row>
     <row r="23" ht="48.0" customHeight="true">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>2</v>
@@ -955,10 +972,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>2</v>
@@ -981,16 +998,16 @@
     </row>
     <row r="25" ht="48.0" customHeight="true">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>2</v>
@@ -1007,7 +1024,7 @@
     </row>
     <row r="26" ht="48.0" customHeight="true">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>2</v>
@@ -1016,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>2</v>
@@ -1033,7 +1050,7 @@
     </row>
     <row r="27" ht="48.0" customHeight="true">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>2</v>
@@ -1042,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>2</v>
@@ -1059,10 +1076,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>2</v>
@@ -1085,7 +1102,7 @@
     </row>
     <row r="29" ht="48.0" customHeight="true">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>2</v>
@@ -1094,7 +1111,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>2</v>
@@ -1111,7 +1128,7 @@
     </row>
     <row r="30" ht="48.0" customHeight="true">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>2</v>
@@ -1120,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>2</v>
@@ -1137,7 +1154,7 @@
     </row>
     <row r="31" ht="48.0" customHeight="true">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>2</v>
@@ -1146,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>2</v>
@@ -1157,8 +1174,8 @@
       <c r="G31" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>2</v>
+      <c r="H31" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32"/>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -264,7 +264,7 @@
   <si>
     <t>ここはファイル末尾のコメントです
 備考に入っていますか？
-コメント中の # は無視されていないこと</t>
+コメント中のは無視されていないこと</t>
   </si>
 </sst>
 </file>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -34,7 +34,7 @@
 * テスト仕様書から自動で結果報告ファイルを生成したい</t>
   </si>
   <si>
-    <t>OS / 端末</t>
+    <t>OS／端末</t>
   </si>
   <si>
     <t>事前準備</t>
@@ -82,7 +82,7 @@
     <t>コマンドを実行して結果報告書を生成する</t>
   </si>
   <si>
-    <t>001001</t>
+    <t>01-001</t>
   </si>
   <si>
     <t>ホームディレクトリに移動する</t>
@@ -94,13 +94,13 @@
     <t>/tmp/vinegar に example.xlsx ファイルが存在すること</t>
   </si>
   <si>
-    <t>001002</t>
+    <t>01-002</t>
   </si>
   <si>
     <t>対象ストーリーに「フィーチャファイルからテスト実施結果報告書を生成する」と表示されていること</t>
   </si>
   <si>
-    <t>001003</t>
+    <t>01-003</t>
   </si>
   <si>
     <t>目的／観点に以下が表示されていること:
@@ -109,7 +109,7 @@
 * テスト仕様書から自動で結果報告ファイルを生成したい</t>
   </si>
   <si>
-    <t>001004</t>
+    <t>01-004</t>
   </si>
   <si>
     <t>事前準備に以下が表示されていること:
@@ -117,7 +117,11 @@
 /tmp/vinegar/example.feature を UTF-8 にする</t>
   </si>
   <si>
-    <t>001005</t>
+    <t>01-005</t>
+  </si>
+  <si>
+    <t>"vinegar /tmp/vinegar/example.feature" を実行する
+"vinegar /tmp/vinegar/example.feature" を実行する</t>
   </si>
   <si>
     <t>各シナリオとステップが表示されていること</t>
@@ -138,7 +142,7 @@
     <t>オプションで指定したディレクトリにファイルを出力する</t>
   </si>
   <si>
-    <t>002001</t>
+    <t>02-001</t>
   </si>
   <si>
     <t>"vinegar -o ~/Desktop /tmp/vinegar/example.feature" コマンドを実行する</t>
@@ -147,19 +151,19 @@
     <t>~/Desktop に example.xlsx ファイルが存在すること</t>
   </si>
   <si>
-    <t>002002</t>
+    <t>02-002</t>
   </si>
   <si>
     <t>/tmp/vinegar に example.xlsx ファイルが存在しないこと</t>
   </si>
   <si>
-    <t>002003</t>
+    <t>02-003</t>
   </si>
   <si>
     <t>カレントディレクトリに example.xlsx ファイルが存在しないこと</t>
   </si>
   <si>
-    <t>002004</t>
+    <t>02-004</t>
   </si>
   <si>
     <t>"vinegar /tmp/vinegar/example.feature --out /tmp/vinegar/path/to/deep/dir" コマンドを実行する
@@ -174,13 +178,13 @@
     <t>日本語環境の場合はエラーメッセージが日本語になる場合もあります</t>
   </si>
   <si>
-    <t>002005</t>
+    <t>02-005</t>
   </si>
   <si>
     <t>/tmp/vinegar/path/to/deep/dir に example.xlsx ファイルが存在しないこと</t>
   </si>
   <si>
-    <t>002006</t>
+    <t>02-006</t>
   </si>
   <si>
     <t>"vinegar /tmp/vinegar/example.feature --out /tmp/vinegar/path/to/deep/dir -f" コマンドを実行する</t>
@@ -189,7 +193,7 @@
     <t>エラーが表示されず終了すること</t>
   </si>
   <si>
-    <t>002007</t>
+    <t>02-007</t>
   </si>
   <si>
     <t>/tmp/vinegar/path/to/deep/dir に example.xlsx ファイルが存在すること</t>
@@ -201,7 +205,7 @@
     <t>存在しないファイルを指定するとエラーを表示する</t>
   </si>
   <si>
-    <t>003001</t>
+    <t>03-001</t>
   </si>
   <si>
     <t>"vinegar /path/to/dummy.feature" コマンドを実行する</t>
@@ -217,22 +221,24 @@
     <t>And や But が正しくパースされていること</t>
   </si>
   <si>
-    <t>004001</t>
-  </si>
-  <si>
-    <t>このテキストは上記２ステップと合わせて「When」に記述されていること</t>
+    <t>04-001</t>
+  </si>
+  <si>
+    <t>ホームディレクトリに移動する
+"vinegar -o ~/Desktop /tmp/vinegar/example.feature" コマンドを実行する
+このテキストは上記２ステップと合わせて「When」に記述されていること</t>
   </si>
   <si>
     <t>1. このテキストは「Then」に記述されていること</t>
   </si>
   <si>
-    <t>004002</t>
+    <t>04-002</t>
   </si>
   <si>
     <t>2. このテキストは 1. の次行の「Then」に記述されていること</t>
   </si>
   <si>
-    <t>004003</t>
+    <t>04-003</t>
   </si>
   <si>
     <t>3. このテキストは 3. の次行の「Then」に記述されていること</t>
@@ -244,27 +250,22 @@
     <t>コメントは備考にコピーする</t>
   </si>
   <si>
-    <t>005001</t>
+    <t>05-001</t>
   </si>
   <si>
     <t>「各シナリオとステップが表示されていること」に備考が設定されていること</t>
   </si>
   <si>
-    <t>005002</t>
+    <t>05-002</t>
   </si>
   <si>
     <t>「"vinegar /tmp/vinegar/example.feature --out /tmp/vinegar/path/to/deep/dir" コマンドを実行する」に備考が設定されていること</t>
   </si>
   <si>
-    <t>005003</t>
+    <t>05-003</t>
   </si>
   <si>
     <t>このテストの備考に以下が記入されていること</t>
-  </si>
-  <si>
-    <t>ここはファイル末尾のコメントです
-備考に入っていますか？
-コメント中の # は無視されていないこと</t>
   </si>
 </sst>
 </file>
@@ -632,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" ht="64.0" customHeight="true">
+    <row r="11" ht="48.0" customHeight="true">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -663,10 +664,10 @@
         <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>30</v>
@@ -684,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="112.0" customHeight="true">
+    <row r="13" ht="144.0" customHeight="true">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -692,10 +693,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>2</v>
@@ -707,15 +708,15 @@
         <v>2</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>2</v>
@@ -738,16 +739,16 @@
     </row>
     <row r="15" ht="48.0" customHeight="true">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>2</v>
@@ -764,7 +765,7 @@
     </row>
     <row r="16" ht="48.0" customHeight="true">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>2</v>
@@ -773,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>2</v>
@@ -790,7 +791,7 @@
     </row>
     <row r="17" ht="48.0" customHeight="true">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>2</v>
@@ -799,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>2</v>
@@ -816,16 +817,16 @@
     </row>
     <row r="18" ht="64.0" customHeight="true">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>2</v>
@@ -837,12 +838,12 @@
         <v>2</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" ht="48.0" customHeight="true">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>2</v>
@@ -851,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>2</v>
@@ -868,16 +869,16 @@
     </row>
     <row r="20" ht="48.0" customHeight="true">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>2</v>
@@ -894,7 +895,7 @@
     </row>
     <row r="21" ht="48.0" customHeight="true">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>2</v>
@@ -903,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>2</v>
@@ -920,10 +921,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>2</v>
@@ -946,16 +947,16 @@
     </row>
     <row r="23" ht="48.0" customHeight="true">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>2</v>
@@ -972,10 +973,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>2</v>
@@ -996,18 +997,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" ht="48.0" customHeight="true">
+    <row r="25" ht="112.0" customHeight="true">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>2</v>
@@ -1024,7 +1025,7 @@
     </row>
     <row r="26" ht="48.0" customHeight="true">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>2</v>
@@ -1033,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>2</v>
@@ -1050,7 +1051,7 @@
     </row>
     <row r="27" ht="48.0" customHeight="true">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>2</v>
@@ -1059,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>2</v>
@@ -1076,10 +1077,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>2</v>
@@ -1102,7 +1103,7 @@
     </row>
     <row r="29" ht="48.0" customHeight="true">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>2</v>
@@ -1111,7 +1112,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>2</v>
@@ -1128,7 +1129,7 @@
     </row>
     <row r="30" ht="48.0" customHeight="true">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>2</v>
@@ -1137,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>2</v>
@@ -1154,7 +1155,7 @@
     </row>
     <row r="31" ht="48.0" customHeight="true">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>2</v>
@@ -1163,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>2</v>
@@ -1174,11 +1175,10 @@
       <c r="G31" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32"/>
+      <c r="H31" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B2:D2"/>
@@ -1188,18 +1188,21 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C23"/>
     <mergeCell ref="B23"/>
-    <mergeCell ref="C23"/>
+    <mergeCell ref="C25:C27"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C29:C31"/>
     <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -685,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="144.0" customHeight="true">
+    <row r="13" ht="112.0" customHeight="true">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="64.0" customHeight="true">
+    <row r="18" ht="48.0" customHeight="true">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" ht="112.0" customHeight="true">
+    <row r="25" ht="80.0" customHeight="true">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
